--- a/documentation/figures/latencies._rev7.xlsx
+++ b/documentation/figures/latencies._rev7.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\PSHS 2019\5\R2_B09_Chord_Identification\documentation\figures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="3" r:id="rId1"/>
     <sheet name="2400 epochs" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
   <si>
     <t>Guess</t>
   </si>
@@ -295,12 +290,66 @@
   </si>
   <si>
     <t>Neural net + Translator</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>t-Test: One-sample</t>
+  </si>
+  <si>
+    <t>reject null</t>
+  </si>
+  <si>
+    <t>P &lt; alfa</t>
+  </si>
+  <si>
+    <t>tstat &lt; tcritical</t>
+  </si>
+  <si>
+    <t>left-tailed test</t>
+  </si>
+  <si>
+    <t>H0: m &gt;= 10</t>
+  </si>
+  <si>
+    <t>HA: m&lt;10</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>St.dev</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Elapsed (m, ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,11 +391,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -369,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -392,11 +442,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,7 +478,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,6 +486,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,9 +516,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -489,26 +563,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="HK Grotesk" panose="00000500000000000000" pitchFamily="50" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -549,13 +603,6 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -566,17 +613,17 @@
                   <c:v>Neural net + Translator</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$47:$G$47</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$47,'2400 epochs'!$G$47)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -588,9 +635,16 @@
                   <c:v>1.1925000000000001</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$47:$G$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FDD-4D44-AB73-36E1ADD47A12}"/>
             </c:ext>
@@ -611,13 +665,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -628,17 +675,17 @@
                   <c:v>Neural net + Translator</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$48:$G$48</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$48,'2400 epochs'!$G$48)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -650,9 +697,16 @@
                   <c:v>0.2174999999999998</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$48:$G$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2FDD-4D44-AB73-36E1ADD47A12}"/>
             </c:ext>
@@ -673,13 +727,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -690,17 +737,17 @@
                   <c:v>Neural net + Translator</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$49:$G$49</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$49,'2400 epochs'!$G$49)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -712,9 +759,16 @@
                   <c:v>0.39500000000000046</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$49:$G$49</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2FDD-4D44-AB73-36E1ADD47A12}"/>
             </c:ext>
@@ -752,13 +806,6 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$46,'2400 epochs'!$G$46)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
@@ -769,17 +816,17 @@
                   <c:v>Neural net + Translator</c:v>
                 </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$46:$G$46</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'2400 epochs'!$E$50:$G$50</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>('2400 epochs'!$E$50,'2400 epochs'!$G$50)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -791,9 +838,16 @@
                   <c:v>0.84499999999999886</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'2400 epochs'!$E$50:$G$50</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2FDD-4D44-AB73-36E1ADD47A12}"/>
             </c:ext>
@@ -809,11 +863,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="617788816"/>
-        <c:axId val="617789144"/>
+        <c:axId val="232147200"/>
+        <c:axId val="232153088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="617788816"/>
+        <c:axId val="232147200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617789144"/>
+        <c:crossAx val="232153088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617789144"/>
+        <c:axId val="232153088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617788816"/>
+        <c:crossAx val="232147200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -929,14 +983,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1538,7 +1592,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558F2D9A-7B94-40AD-86CD-14AB2BFF06F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{558F2D9A-7B94-40AD-86CD-14AB2BFF06F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1654,7 +1708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1848,7 +1902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1862,15 +1916,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="2"/>
-    <col min="2" max="2" width="31.53515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.3828125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="2"/>
+    <col min="2" max="2" width="31.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -1879,7 +1933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37.75" x14ac:dyDescent="1.1000000000000001">
+    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.65">
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1887,12 +1941,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1900,7 +1954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1908,7 +1962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1916,17 +1970,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -1942,29 +1996,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" style="2"/>
-    <col min="2" max="2" width="15.53515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.69140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.23046875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" style="2"/>
-    <col min="7" max="7" width="15.23046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.84375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.53515625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="10.3046875" style="2"/>
-    <col min="12" max="12" width="23.765625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.3046875" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="2"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2"/>
+    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="2"/>
+    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>334</v>
       </c>
@@ -2007,25 +2061,25 @@
         <v>8.8000000000000003E-4</v>
       </c>
       <c r="E2" s="6">
-        <f>D2*1000</f>
+        <f t="shared" ref="E2:E31" si="0">D2*1000</f>
         <v>0.88</v>
       </c>
       <c r="F2" s="2">
         <v>1.5100000000000001E-3</v>
       </c>
       <c r="G2" s="7">
-        <f>F2*1000</f>
+        <f t="shared" ref="G2:G31" si="1">F2*1000</f>
         <v>1.51</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <f>1000*(F2-D2)</f>
+        <f t="shared" ref="I2:I31" si="2">1000*(F2-D2)</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>388</v>
       </c>
@@ -2039,28 +2093,28 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E3" s="6">
-        <f>D3*1000</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="F3" s="2">
         <v>2.1199999999999999E-3</v>
       </c>
       <c r="G3" s="7">
-        <f>F3*1000</f>
+        <f t="shared" si="1"/>
         <v>2.12</v>
       </c>
       <c r="H3" s="2">
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>1000*(F3-D3)</f>
+        <f t="shared" si="2"/>
         <v>0.82</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>77</v>
       </c>
@@ -2074,31 +2128,28 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E4" s="6">
-        <f>D4*1000</f>
+        <f t="shared" si="0"/>
         <v>1.3699999999999999</v>
       </c>
       <c r="F4" s="2">
         <v>2.1900000000000001E-3</v>
       </c>
       <c r="G4" s="7">
-        <f>F4*1000</f>
+        <f t="shared" si="1"/>
         <v>2.19</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <f>1000*(F4-D4)</f>
+        <f t="shared" si="2"/>
         <v>0.82000000000000017</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="9">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>150</v>
       </c>
@@ -2112,31 +2163,28 @@
         <v>2.16E-3</v>
       </c>
       <c r="E5" s="6">
-        <f>D5*1000</f>
+        <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
       <c r="F5" s="2">
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="G5" s="7">
-        <f>F5*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0500000000000003</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <f>1000*(F5-D5)</f>
+        <f t="shared" si="2"/>
         <v>0.89000000000000012</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>82</v>
       </c>
@@ -2150,25 +2198,25 @@
         <v>1.47E-3</v>
       </c>
       <c r="E6" s="6">
-        <f>D6*1000</f>
+        <f t="shared" si="0"/>
         <v>1.47</v>
       </c>
       <c r="F6" s="2">
         <v>2.3700000000000001E-3</v>
       </c>
       <c r="G6" s="7">
-        <f>F6*1000</f>
+        <f t="shared" si="1"/>
         <v>2.37</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
       </c>
       <c r="I6" s="2">
-        <f>1000*(F6-D6)</f>
+        <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -2182,25 +2230,31 @@
         <v>1.48E-3</v>
       </c>
       <c r="E7" s="6">
-        <f>D7*1000</f>
+        <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
       <c r="F7" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="G7" s="7">
-        <f>F7*1000</f>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="2">
-        <f>1000*(F7-D7)</f>
+        <f t="shared" si="2"/>
         <v>0.91999999999999982</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>302</v>
       </c>
@@ -2214,25 +2268,31 @@
         <v>2.0100000000000001E-3</v>
       </c>
       <c r="E8" s="6">
-        <f>D8*1000</f>
+        <f t="shared" si="0"/>
         <v>2.0100000000000002</v>
       </c>
       <c r="F8" s="2">
         <v>2.96E-3</v>
       </c>
       <c r="G8" s="7">
-        <f>F8*1000</f>
+        <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
       <c r="I8" s="2">
-        <f>1000*(F8-D8)</f>
+        <f t="shared" si="2"/>
         <v>0.94999999999999984</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>305</v>
       </c>
@@ -2246,25 +2306,29 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="E9" s="6">
-        <f>D9*1000</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="F9" s="2">
         <v>2.2499999999999998E-3</v>
       </c>
       <c r="G9" s="7">
-        <f>F9*1000</f>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <f>1000*(F9-D9)</f>
+        <f t="shared" si="2"/>
         <v>0.94999999999999984</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2278,25 +2342,31 @@
         <v>1.99E-3</v>
       </c>
       <c r="E10" s="6">
-        <f>D10*1000</f>
+        <f t="shared" si="0"/>
         <v>1.99</v>
       </c>
       <c r="F10" s="2">
         <v>2.98E-3</v>
       </c>
       <c r="G10" s="7">
-        <f>F10*1000</f>
+        <f t="shared" si="1"/>
         <v>2.98</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
       </c>
       <c r="I10" s="2">
-        <f>1000*(F10-D10)</f>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1.5226666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -2310,25 +2380,32 @@
         <v>2.1900000000000001E-3</v>
       </c>
       <c r="E11" s="6">
-        <f>D11*1000</f>
+        <f t="shared" si="0"/>
         <v>2.19</v>
       </c>
       <c r="F11" s="2">
         <v>3.1800000000000001E-3</v>
       </c>
       <c r="G11" s="7">
-        <f>F11*1000</f>
+        <f t="shared" si="1"/>
         <v>3.18</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <f>1000*(F11-D11)</f>
+        <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="12">
+        <f>_xlfn.STDEV.S(E2:E31)</f>
+        <v>0.31587790453704268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -2342,25 +2419,31 @@
         <v>1.6199999999999999E-3</v>
       </c>
       <c r="E12" s="6">
-        <f>D12*1000</f>
+        <f t="shared" si="0"/>
         <v>1.6199999999999999</v>
       </c>
       <c r="F12" s="2">
         <v>2.63E-3</v>
       </c>
       <c r="G12" s="7">
-        <f>F12*1000</f>
+        <f t="shared" si="1"/>
         <v>2.63</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>1000*(F12-D12)</f>
+        <f t="shared" si="2"/>
         <v>1.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>424</v>
       </c>
@@ -2374,25 +2457,31 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="E13" s="6">
-        <f>D13*1000</f>
+        <f t="shared" si="0"/>
         <v>1.52</v>
       </c>
       <c r="F13" s="2">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="G13" s="7">
-        <f>F13*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
       <c r="H13" s="2">
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>1000*(F13-D13)</f>
+        <f t="shared" si="2"/>
         <v>1.1800000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>247</v>
       </c>
@@ -2406,25 +2495,32 @@
         <v>1.42E-3</v>
       </c>
       <c r="E14" s="6">
-        <f>D14*1000</f>
+        <f t="shared" si="0"/>
         <v>1.42</v>
       </c>
       <c r="F14" s="2">
         <v>2.7100000000000002E-3</v>
       </c>
       <c r="G14" s="7">
-        <f>F14*1000</f>
+        <f t="shared" si="1"/>
         <v>2.71</v>
       </c>
       <c r="H14" s="2">
         <v>5</v>
       </c>
       <c r="I14" s="2">
-        <f>1000*(F14-D14)</f>
+        <f t="shared" si="2"/>
         <v>1.29</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="12">
+        <f>L11/SQRT(L12)</f>
+        <v>5.7671151244133911E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>438</v>
       </c>
@@ -2438,25 +2534,31 @@
         <v>1.32E-3</v>
       </c>
       <c r="E15" s="6">
-        <f>D15*1000</f>
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
       <c r="F15" s="2">
         <v>2.7399999999999998E-3</v>
       </c>
       <c r="G15" s="7">
-        <f>F15*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7399999999999998</v>
       </c>
       <c r="H15" s="2">
         <v>6</v>
       </c>
       <c r="I15" s="2">
-        <f>1000*(F15-D15)</f>
+        <f t="shared" si="2"/>
         <v>1.42</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>217</v>
       </c>
@@ -2470,25 +2572,31 @@
         <v>1.32E-3</v>
       </c>
       <c r="E16" s="6">
-        <f>D16*1000</f>
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
       <c r="F16" s="2">
         <v>2.7699999999999999E-3</v>
       </c>
       <c r="G16" s="7">
-        <f>F16*1000</f>
+        <f t="shared" si="1"/>
         <v>2.77</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
       </c>
       <c r="I16" s="2">
-        <f>1000*(F16-D16)</f>
+        <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>368</v>
       </c>
@@ -2502,25 +2610,32 @@
         <v>1.57E-3</v>
       </c>
       <c r="E17" s="6">
-        <f>D17*1000</f>
+        <f t="shared" si="0"/>
         <v>1.57</v>
       </c>
       <c r="F17" s="2">
         <v>3.0599999999999998E-3</v>
       </c>
       <c r="G17" s="7">
-        <f>F17*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0599999999999996</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
       </c>
       <c r="I17" s="2">
-        <f>1000*(F17-D17)</f>
+        <f t="shared" si="2"/>
         <v>1.4899999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="12">
+        <f>(L14-L13)/L11</f>
+        <v>-31.475227313944458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>145</v>
       </c>
@@ -2534,25 +2649,32 @@
         <v>1.2899999999999999E-3</v>
       </c>
       <c r="E18" s="6">
-        <f>D18*1000</f>
+        <f t="shared" si="0"/>
         <v>1.2899999999999998</v>
       </c>
       <c r="F18" s="2">
         <v>2.8E-3</v>
       </c>
       <c r="G18" s="7">
-        <f>F18*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
       </c>
       <c r="I18" s="2">
-        <f>1000*(F18-D18)</f>
+        <f t="shared" si="2"/>
         <v>1.51</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="12">
+        <f>_xlfn.T.DIST(L17,L16,1)</f>
+        <v>2.843196868216149E-24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>405</v>
       </c>
@@ -2566,25 +2688,32 @@
         <v>1.31E-3</v>
       </c>
       <c r="E19" s="6">
-        <f>D19*1000</f>
+        <f t="shared" si="0"/>
         <v>1.31</v>
       </c>
       <c r="F19" s="2">
         <v>2.8300000000000001E-3</v>
       </c>
       <c r="G19" s="7">
-        <f>F19*1000</f>
+        <f t="shared" si="1"/>
         <v>2.83</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
       </c>
       <c r="I19" s="2">
-        <f>1000*(F19-D19)</f>
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="12">
+        <f>_xlfn.T.INV(L15,L16)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>58</v>
       </c>
@@ -2598,25 +2727,27 @@
         <v>1.2700000000000001E-3</v>
       </c>
       <c r="E20" s="6">
-        <f>D20*1000</f>
+        <f t="shared" si="0"/>
         <v>1.27</v>
       </c>
       <c r="F20" s="2">
         <v>2.8600000000000001E-3</v>
       </c>
       <c r="G20" s="7">
-        <f>F20*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8600000000000003</v>
       </c>
       <c r="H20" s="2">
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <f>1000*(F20-D20)</f>
+        <f t="shared" si="2"/>
         <v>1.59</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>68</v>
       </c>
@@ -2630,25 +2761,31 @@
         <v>1.2800000000000001E-3</v>
       </c>
       <c r="E21" s="6">
-        <f>D21*1000</f>
+        <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
       <c r="F21" s="2">
         <v>2.8800000000000002E-3</v>
       </c>
       <c r="G21" s="7">
-        <f>F21*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8800000000000003</v>
       </c>
       <c r="H21" s="2">
         <v>6</v>
       </c>
       <c r="I21" s="2">
-        <f>1000*(F21-D21)</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>182</v>
       </c>
@@ -2662,25 +2799,31 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="E22" s="6">
-        <f>D22*1000</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="F22" s="2">
         <v>3.3400000000000001E-3</v>
       </c>
       <c r="G22" s="7">
-        <f>F22*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3400000000000003</v>
       </c>
       <c r="H22" s="2">
         <v>4</v>
       </c>
       <c r="I22" s="2">
-        <f>1000*(F22-D22)</f>
+        <f t="shared" si="2"/>
         <v>1.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>204</v>
       </c>
@@ -2694,25 +2837,27 @@
         <v>1.33E-3</v>
       </c>
       <c r="E23" s="6">
-        <f>D23*1000</f>
+        <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
       <c r="F23" s="2">
         <v>3.13E-3</v>
       </c>
       <c r="G23" s="7">
-        <f>F23*1000</f>
+        <f t="shared" si="1"/>
         <v>3.13</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
       <c r="I23" s="2">
-        <f>1000*(F23-D23)</f>
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>227</v>
       </c>
@@ -2726,25 +2871,27 @@
         <v>2.0300000000000001E-3</v>
       </c>
       <c r="E24" s="6">
-        <f>D24*1000</f>
+        <f t="shared" si="0"/>
         <v>2.0300000000000002</v>
       </c>
       <c r="F24" s="2">
         <v>3.9100000000000003E-3</v>
       </c>
       <c r="G24" s="7">
-        <f>F24*1000</f>
+        <f t="shared" si="1"/>
         <v>3.91</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
       </c>
       <c r="I24" s="2">
-        <f>1000*(F24-D24)</f>
+        <f t="shared" si="2"/>
         <v>1.8800000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>272</v>
       </c>
@@ -2758,25 +2905,31 @@
         <v>1.32E-3</v>
       </c>
       <c r="E25" s="6">
-        <f>D25*1000</f>
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
       <c r="F25" s="2">
         <v>3.2399999999999998E-3</v>
       </c>
       <c r="G25" s="7">
-        <f>F25*1000</f>
+        <f t="shared" si="1"/>
         <v>3.2399999999999998</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
       </c>
       <c r="I25" s="2">
-        <f>1000*(F25-D25)</f>
+        <f t="shared" si="2"/>
         <v>1.92</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>357</v>
       </c>
@@ -2790,25 +2943,31 @@
         <v>1.32E-3</v>
       </c>
       <c r="E26" s="6">
-        <f>D26*1000</f>
+        <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
       <c r="F26" s="2">
         <v>3.3400000000000001E-3</v>
       </c>
       <c r="G26" s="7">
-        <f>F26*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3400000000000003</v>
       </c>
       <c r="H26" s="2">
         <v>5</v>
       </c>
       <c r="I26" s="2">
-        <f>1000*(F26-D26)</f>
+        <f t="shared" si="2"/>
         <v>2.02</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>420</v>
       </c>
@@ -2822,25 +2981,29 @@
         <v>1.6199999999999999E-3</v>
       </c>
       <c r="E27" s="6">
-        <f>D27*1000</f>
+        <f t="shared" si="0"/>
         <v>1.6199999999999999</v>
       </c>
       <c r="F27" s="2">
         <v>3.7200000000000002E-3</v>
       </c>
       <c r="G27" s="7">
-        <f>F27*1000</f>
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
       <c r="H27" s="2">
         <v>4</v>
       </c>
       <c r="I27" s="2">
-        <f>1000*(F27-D27)</f>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>409</v>
       </c>
@@ -2854,25 +3017,32 @@
         <v>2.0500000000000002E-3</v>
       </c>
       <c r="E28" s="6">
-        <f>D28*1000</f>
+        <f t="shared" si="0"/>
         <v>2.0500000000000003</v>
       </c>
       <c r="F28" s="2">
         <v>4.1599999999999996E-3</v>
       </c>
       <c r="G28" s="7">
-        <f>F28*1000</f>
+        <f t="shared" si="1"/>
         <v>4.1599999999999993</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
       </c>
       <c r="I28" s="2">
-        <f>1000*(F28-D28)</f>
+        <f t="shared" si="2"/>
         <v>2.1099999999999994</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="12">
+        <f>G36</f>
+        <v>2.9546666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>423</v>
       </c>
@@ -2886,25 +3056,32 @@
         <v>1.5900000000000001E-3</v>
       </c>
       <c r="E29" s="6">
-        <f>D29*1000</f>
+        <f t="shared" si="0"/>
         <v>1.59</v>
       </c>
       <c r="F29" s="2">
         <v>3.7200000000000002E-3</v>
       </c>
       <c r="G29" s="7">
-        <f>F29*1000</f>
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
       <c r="H29" s="2">
         <v>4</v>
       </c>
       <c r="I29" s="2">
-        <f>1000*(F29-D29)</f>
+        <f t="shared" si="2"/>
         <v>2.13</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="12">
+        <f>G37</f>
+        <v>0.57541429352719786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>427</v>
       </c>
@@ -2918,25 +3095,31 @@
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="E30" s="6">
-        <f>D30*1000</f>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="F30" s="2">
         <v>3.48E-3</v>
       </c>
       <c r="G30" s="7">
-        <f>F30*1000</f>
+        <f t="shared" si="1"/>
         <v>3.48</v>
       </c>
       <c r="H30" s="2">
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <f>1000*(F30-D30)</f>
+        <f t="shared" si="2"/>
         <v>2.13</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>211</v>
       </c>
@@ -2950,45 +3133,81 @@
         <v>1.4E-3</v>
       </c>
       <c r="E31" s="6">
-        <f>D31*1000</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="F31" s="2">
         <v>3.6099999999999999E-3</v>
       </c>
       <c r="G31" s="7">
-        <f>F31*1000</f>
+        <f t="shared" si="1"/>
         <v>3.61</v>
       </c>
       <c r="H31" s="2">
         <v>6</v>
       </c>
       <c r="I31" s="2">
-        <f>1000*(F31-D31)</f>
+        <f t="shared" si="2"/>
         <v>2.21</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="12">
+        <f>L29/SQRT(L30)</f>
+        <v>0.10505579615858172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L34" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="K35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" s="12">
+        <f>(L32-L31)/L29</f>
+        <v>-17.196208566851876</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f>AVERAGE(E2:E31)</f>
         <v>1.5226666666666666</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="12">
+      <c r="F36" s="9"/>
+      <c r="G36" s="11">
         <f>AVERAGE(G2:G31)</f>
         <v>2.9546666666666668</v>
       </c>
@@ -2996,34 +3215,58 @@
         <f>AVERAGE(I2:I31)</f>
         <v>1.4320000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L36" s="12">
+        <f>_xlfn.T.DIST(L35,L34,1)</f>
+        <v>4.7098882080482392E-17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="11">
-        <f>_xlfn.STDEV.S(E2:E31)</f>
-        <v>0.31587790453704268</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="12">
+      <c r="E37" s="10" t="e">
+        <f>K11S</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11">
         <f>_xlfn.STDEV.S(G2:G31)</f>
         <v>0.57541429352719786</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="12">
+        <f>_xlfn.T.INV(L33,L34)</f>
+        <v>-1.6991270265334986</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>30</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="12">
+      <c r="F38" s="9"/>
+      <c r="G38" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>79</v>
       </c>
@@ -3032,11 +3275,17 @@
         <v>0.88</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" ref="F40:G40" si="0">MIN(G2:G31)</f>
+        <f t="shared" ref="G40" si="3">MIN(G2:G31)</f>
         <v>1.51</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3045,11 +3294,11 @@
         <v>1.32</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="F41:G41" si="1">_xlfn.QUARTILE.INC(G2:G31, 1)</f>
+        <f t="shared" ref="G41" si="4">_xlfn.QUARTILE.INC(G2:G31, 1)</f>
         <v>2.7025000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
@@ -3058,11 +3307,11 @@
         <v>1.41</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" ref="F42:G42" si="2">_xlfn.QUARTILE.INC(G2:G31, 2)</f>
+        <f t="shared" ref="G42" si="5">_xlfn.QUARTILE.INC(G2:G31, 2)</f>
         <v>2.92</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>82</v>
       </c>
@@ -3071,11 +3320,11 @@
         <v>1.615</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="F43:G43" si="3">_xlfn.QUARTILE.INC(G2:G31, 3)</f>
+        <f t="shared" ref="G43" si="6">_xlfn.QUARTILE.INC(G2:G31, 3)</f>
         <v>3.3150000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>83</v>
       </c>
@@ -3084,11 +3333,11 @@
         <v>2.19</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" ref="F44:G44" si="4">MAX(G2:G31)</f>
+        <f t="shared" ref="G44" si="7">MAX(G2:G31)</f>
         <v>4.1599999999999993</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,7 +3345,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
@@ -3109,7 +3358,7 @@
         <v>1.1925000000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>85</v>
       </c>
@@ -3122,7 +3371,7 @@
         <v>0.2174999999999998</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
@@ -3135,7 +3384,7 @@
         <v>0.39500000000000046</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>87</v>
       </c>
